--- a/orders.xlsx
+++ b/orders.xlsx
@@ -1195,8 +1195,8 @@
   <sheetPr/>
   <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:38">
       <c r="A2" s="5">
-        <v>12295</v>
+        <v>122957</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
@@ -1410,7 +1410,7 @@
         <v>200</v>
       </c>
       <c r="X2" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="1">
@@ -1453,7 +1453,7 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:38">
       <c r="A3" s="5">
-        <v>12296</v>
+        <v>122958</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>38</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:38">
       <c r="A4" s="5">
-        <v>12296</v>
+        <v>122959</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
@@ -1598,7 +1598,7 @@
         <v>200</v>
       </c>
       <c r="X4" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="1">
@@ -1641,7 +1641,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:38">
       <c r="A5" s="5">
-        <v>12296</v>
+        <v>122960</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>38</v>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -30,36 +30,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
-  <si>
-    <t>Order_Number</t>
-  </si>
-  <si>
-    <t>Order_Status</t>
-  </si>
-  <si>
-    <t>Order_Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>Order Number</t>
+  </si>
+  <si>
+    <t>Order Status</t>
+  </si>
+  <si>
+    <t>Order Date</t>
   </si>
   <si>
     <t>Customer Note</t>
   </si>
   <si>
-    <t>First_Name</t>
-  </si>
-  <si>
-    <t>Last_Name</t>
+    <t>First Name (Billing)</t>
+  </si>
+  <si>
+    <t>Last Name (Billing)</t>
   </si>
   <si>
     <t>Company (Billing)</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>StateCode</t>
+    <t>Address 1&amp;2 (Billing)</t>
+  </si>
+  <si>
+    <t>City (Billing)</t>
+  </si>
+  <si>
+    <t>State Code (Billing)</t>
   </si>
   <si>
     <t>Postcode (Billing)</t>
@@ -143,15 +143,12 @@
     <t>Discount Amount Tax</t>
   </si>
   <si>
-    <t>EmpCode</t>
+    <t>12295</t>
   </si>
   <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>2024-05-25T12:00:00Z</t>
-  </si>
-  <si>
     <t>Bala</t>
   </si>
   <si>
@@ -186,34 +183,18 @@
   </si>
   <si>
     <t>2023001</t>
-  </si>
-  <si>
-    <t>SAL000008</t>
-  </si>
-  <si>
-    <t>2024-05-26T12:00:01Z</t>
-  </si>
-  <si>
-    <t>2024-05-23T12:00:02Z</t>
-  </si>
-  <si>
-    <t>SAL000007</t>
-  </si>
-  <si>
-    <t>2024-05-23T12:00:03Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy/mm/dd\ hh:mm"/>
-    <numFmt numFmtId="181" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -836,14 +817,12 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1193,16 +1172,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="2" width="15.2777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.6666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.9907407407407" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.4259259259259" style="2" customWidth="1"/>
     <col min="5" max="5" width="24.7037037037037" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.4259259259259" style="2" customWidth="1"/>
@@ -1237,11 +1216,10 @@
     <col min="35" max="35" width="14" style="2" customWidth="1"/>
     <col min="36" max="36" width="18.712962962963" style="1" customWidth="1"/>
     <col min="37" max="37" width="23.4259259259259" style="1" customWidth="1"/>
-    <col min="38" max="38" width="12" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="9" style="1"/>
+    <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:38">
+    <row r="1" s="1" customFormat="1" spans="1:37">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1353,48 +1331,45 @@
       <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:37">
+      <c r="A2" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:38">
-      <c r="A2" s="5">
-        <v>122957</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>39</v>
+      <c r="C2" s="3">
+        <v>45122.94068287</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1404,13 +1379,13 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W2" s="1">
         <v>200</v>
       </c>
       <c r="X2" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="1">
@@ -1430,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG2" s="1">
         <v>1</v>
@@ -1439,7 +1414,7 @@
         <v>300</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AJ2" s="1">
         <v>200</v>
@@ -1447,935 +1422,6 @@
       <c r="AK2" s="1">
         <v>0</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:38">
-      <c r="A3" s="5">
-        <v>122958</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" s="1">
-        <v>200</v>
-      </c>
-      <c r="X3" s="1">
-        <v>500</v>
-      </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>300</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>300</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>200</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:38">
-      <c r="A4" s="5">
-        <v>122959</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" s="1">
-        <v>200</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1500</v>
-      </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>300</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>300</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>200</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:38">
-      <c r="A5" s="5">
-        <v>122960</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W5" s="1">
-        <v>200</v>
-      </c>
-      <c r="X5" s="1">
-        <v>500</v>
-      </c>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>300</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>300</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>200</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AI6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AI7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AI8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AI9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AI10" s="2"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AI11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AI12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AI13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AI14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AI15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AI16" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AI17" s="2"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AI18" s="2"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AI19" s="2"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AI20" s="2"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AI21" s="2"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AI22" s="2"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AI23" s="2"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AI24" s="2"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AI25" s="2"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AI26" s="2"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AI27" s="2"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AI28" s="2"/>
     </row>
   </sheetData>
   <sortState ref="B2:E475">
